--- a/biology/Botanique/Indigofera_conjugata/Indigofera_conjugata.xlsx
+++ b/biology/Botanique/Indigofera_conjugata/Indigofera_conjugata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indigofera conjugata est une espèce de plantes de la famille des Fabaceae et du genre Indigofera, présente en Afrique tropicale[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indigofera conjugata est une espèce de plantes de la famille des Fabaceae et du genre Indigofera, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante vivace pyrophyte érigée atteignant 50 ou 60 cm, émergeant d'une souche ligneuse robuste[4],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace pyrophyte érigée atteignant 50 ou 60 cm, émergeant d'une souche ligneuse robuste,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Répandue en Afrique tropicale, elle a été observée depuis la Guinée jusqu'en Éthiopie, également vers le sud, en Angola, en Zambie et en Tanzanie, à l'exception des zones à très fortes précipitations[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Répandue en Afrique tropicale, elle a été observée depuis la Guinée jusqu'en Éthiopie, également vers le sud, en Angola, en Zambie et en Tanzanie, à l'exception des zones à très fortes précipitations.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre sur les pentes rocheuses savanicoles et les inselbergs. C'est une plante rudérale[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre sur les pentes rocheuses savanicoles et les inselbergs. C'est une plante rudérale.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Récoltée à l'état sauvage, I. conjugata est utilisée comme colorant[3], une source importante de la couleur indigo[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Récoltée à l'état sauvage, I. conjugata est utilisée comme colorant, une source importante de la couleur indigo.
 </t>
         </is>
       </c>
@@ -635,12 +655,14 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (18 juin 2020)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (18 juin 2020) :
 variété Indigofera conjugata var. schweinfurthii (Taub.) J.B. Gillett
 variété Indigofera conjugata var. trimorphophylla (Taub.) J.B. Gillett
-Selon Tropicos                                           (18 juin 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (18 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Indigofera conjugata var. conjugata
 variété Indigofera conjugata var. occidentalis J.B. Gillett
 variété Indigofera conjugata var. schweinfurthii (Taub.) J.B. Gillett
